--- a/pred_ohlcv/54_21/2019-10-29 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>121038.3642230572</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>92644.61022305716</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>116640.5400230572</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>93536.83642305716</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>125908.8131230572</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>92558.79912305716</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>101928.3241230572</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>103128.3241230572</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>103009.8158230572</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>102329.8158230572</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>105863.7268230572</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>116197.8640230572</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>114344.2901230572</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>110722.6733230572</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>81929.66460000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>81853.94850000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>93166.47540000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>93516.71959495799</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>106555.719594958</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>121038.3642230572</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>114505.9745230572</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>108905.9745230572</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>108906.9745230572</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>103596.0407230572</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>100465.9911230572</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>92644.61022305716</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>92894.61022305716</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>93513.51922305716</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>91613.91202305716</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>116640.5400230572</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>111740.5400230572</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>86776.47862305716</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>86832.85872305716</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>86602.93712305716</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>97202.93712305716</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>93536.83642305716</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>126240.6501230572</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>106828.5675230572</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>106828.5675230572</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>105670.7268230572</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>100863.7268230572</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>105863.7268230572</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>116197.8640230572</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>104729.6291230572</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>114344.2901230572</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>110722.6733230572</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>110101.6733230572</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
